--- a/teaching/traditional_assets/database/data/iceland/iceland_air_transport.xlsx
+++ b/teaching/traditional_assets/database/data/iceland/iceland_air_transport.xlsx
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0575</v>
+        <v>-0.09080000000000001</v>
       </c>
       <c r="G2">
-        <v>0.04843940008107012</v>
+        <v>0.1539350180505415</v>
       </c>
       <c r="H2">
-        <v>0.04843940008107012</v>
+        <v>0.1539350180505415</v>
       </c>
       <c r="I2">
-        <v>-0.09246534185502131</v>
+        <v>-0.3211552346570397</v>
       </c>
       <c r="J2">
-        <v>-0.09246534185502131</v>
+        <v>-0.3211552346570397</v>
       </c>
       <c r="K2">
-        <v>-83.09999999999999</v>
+        <v>-313.5</v>
       </c>
       <c r="L2">
-        <v>-0.05614106201864612</v>
+        <v>-0.4527075812274368</v>
       </c>
       <c r="M2">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>6.123698714023269e-06</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-2.406738868832732e-05</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,79 +630,76 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0.002</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>171.2</v>
+        <v>191</v>
       </c>
       <c r="V2">
-        <v>0.5241886099203918</v>
+        <v>0.5210038188761593</v>
       </c>
       <c r="W2">
-        <v>-0.144773519163763</v>
+        <v>-0.6256236280183596</v>
       </c>
       <c r="X2">
-        <v>0.1616475950536201</v>
+        <v>0.1058043949302045</v>
       </c>
       <c r="Y2">
-        <v>-0.3064211142173831</v>
+        <v>-0.7314280229485641</v>
       </c>
       <c r="Z2">
-        <v>1.028533790462949</v>
+        <v>0.9041650345998171</v>
       </c>
       <c r="AA2">
-        <v>-0.09510372854459746</v>
+        <v>-0.2903773338555947</v>
       </c>
       <c r="AB2">
-        <v>0.06543142558955189</v>
+        <v>0.06394524569979672</v>
       </c>
       <c r="AC2">
-        <v>-0.1605351541341494</v>
+        <v>-0.3543225795553914</v>
       </c>
       <c r="AD2">
-        <v>436</v>
+        <v>411.3</v>
       </c>
       <c r="AE2">
-        <v>634.3359950690127</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1070.335995069013</v>
+        <v>411.3</v>
       </c>
       <c r="AG2">
-        <v>899.1359950690128</v>
+        <v>220.3</v>
       </c>
       <c r="AH2">
-        <v>0.7662026025867671</v>
+        <v>0.5287311993829541</v>
       </c>
       <c r="AI2">
-        <v>0.6812063868368805</v>
+        <v>0.5839011925042589</v>
       </c>
       <c r="AJ2">
-        <v>0.7335478428357556</v>
+        <v>0.3753620719032203</v>
       </c>
       <c r="AK2">
-        <v>0.6422234844216925</v>
+        <v>0.4291001168679392</v>
       </c>
       <c r="AL2">
-        <v>34.1</v>
+        <v>35.2</v>
       </c>
       <c r="AM2">
-        <v>30.23</v>
+        <v>32.19</v>
       </c>
       <c r="AN2">
-        <v>2.936026936026936</v>
+        <v>-6.366873065015481</v>
       </c>
       <c r="AO2">
-        <v>-2.222873900293255</v>
+        <v>-6.318181818181817</v>
       </c>
       <c r="AP2">
-        <v>6.054787845582577</v>
+        <v>-3.410216718266254</v>
       </c>
       <c r="AQ2">
-        <v>-2.507442937479325</v>
+        <v>-6.908977943460701</v>
       </c>
     </row>
     <row r="3">
@@ -722,34 +719,34 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0575</v>
+        <v>-0.09080000000000001</v>
       </c>
       <c r="G3">
-        <v>0.04843940008107012</v>
+        <v>0.1539350180505415</v>
       </c>
       <c r="H3">
-        <v>0.04843940008107012</v>
+        <v>0.1539350180505415</v>
       </c>
       <c r="I3">
-        <v>-0.09246534185502131</v>
+        <v>-0.3211552346570397</v>
       </c>
       <c r="J3">
-        <v>-0.09246534185502131</v>
+        <v>-0.3211552346570397</v>
       </c>
       <c r="K3">
-        <v>-83.09999999999999</v>
+        <v>-313.5</v>
       </c>
       <c r="L3">
-        <v>-0.05614106201864612</v>
+        <v>-0.4527075812274368</v>
       </c>
       <c r="M3">
-        <v>0.002</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>6.123698714023269e-06</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-2.406738868832732e-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -761,79 +758,76 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.002</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>171.2</v>
+        <v>191</v>
       </c>
       <c r="V3">
-        <v>0.5241886099203918</v>
+        <v>0.5210038188761593</v>
       </c>
       <c r="W3">
-        <v>-0.144773519163763</v>
+        <v>-0.6256236280183596</v>
       </c>
       <c r="X3">
-        <v>0.1616475950536201</v>
+        <v>0.1058043949302045</v>
       </c>
       <c r="Y3">
-        <v>-0.3064211142173831</v>
+        <v>-0.7314280229485641</v>
       </c>
       <c r="Z3">
-        <v>1.028533790462949</v>
+        <v>0.9041650345998171</v>
       </c>
       <c r="AA3">
-        <v>-0.09510372854459746</v>
+        <v>-0.2903773338555947</v>
       </c>
       <c r="AB3">
-        <v>0.06543142558955189</v>
+        <v>0.06394524569979672</v>
       </c>
       <c r="AC3">
-        <v>-0.1605351541341494</v>
+        <v>-0.3543225795553914</v>
       </c>
       <c r="AD3">
-        <v>436</v>
+        <v>411.3</v>
       </c>
       <c r="AE3">
-        <v>634.3359950690127</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1070.335995069013</v>
+        <v>411.3</v>
       </c>
       <c r="AG3">
-        <v>899.1359950690128</v>
+        <v>220.3</v>
       </c>
       <c r="AH3">
-        <v>0.7662026025867671</v>
+        <v>0.5287311993829541</v>
       </c>
       <c r="AI3">
-        <v>0.6812063868368805</v>
+        <v>0.5839011925042589</v>
       </c>
       <c r="AJ3">
-        <v>0.7335478428357556</v>
+        <v>0.3753620719032203</v>
       </c>
       <c r="AK3">
-        <v>0.6422234844216925</v>
+        <v>0.4291001168679392</v>
       </c>
       <c r="AL3">
-        <v>34.1</v>
+        <v>35.2</v>
       </c>
       <c r="AM3">
-        <v>30.23</v>
+        <v>32.19</v>
       </c>
       <c r="AN3">
-        <v>2.936026936026936</v>
+        <v>-6.366873065015481</v>
       </c>
       <c r="AO3">
-        <v>-2.222873900293255</v>
+        <v>-6.318181818181817</v>
       </c>
       <c r="AP3">
-        <v>6.054787845582577</v>
+        <v>-3.410216718266254</v>
       </c>
       <c r="AQ3">
-        <v>-2.507442937479325</v>
+        <v>-6.908977943460701</v>
       </c>
     </row>
   </sheetData>
